--- a/公轉90與270(v1老師版)/公轉90與270.xlsx
+++ b/公轉90與270(v1老師版)/公轉90與270.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>3!</t>
   </si>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>15個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預測State(實際State3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預測State(實際State7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -806,7 +822,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -891,7 +906,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1026,11 +1040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2138983752"/>
-        <c:axId val="-2138662984"/>
+        <c:axId val="-2065280488"/>
+        <c:axId val="-2092134664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138983752"/>
+        <c:axId val="-2065280488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138662984"/>
+        <c:crossAx val="-2092134664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138662984"/>
+        <c:axId val="-2092134664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138983752"/>
+        <c:crossAx val="-2065280488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1105,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1387,11 +1400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065669896"/>
-        <c:axId val="-2072375608"/>
+        <c:axId val="-2092451080"/>
+        <c:axId val="-2066014808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065669896"/>
+        <c:axId val="-2092451080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072375608"/>
+        <c:crossAx val="-2066014808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072375608"/>
+        <c:axId val="-2066014808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065669896"/>
+        <c:crossAx val="-2092451080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1465,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1605,11 +1617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072906664"/>
-        <c:axId val="-2072969096"/>
+        <c:axId val="-2130958216"/>
+        <c:axId val="-2131025624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072906664"/>
+        <c:axId val="-2130958216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072969096"/>
+        <c:crossAx val="-2131025624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072969096"/>
+        <c:axId val="-2131025624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072906664"/>
+        <c:crossAx val="-2130958216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,7 +1696,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1837,11 +1848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072309544"/>
-        <c:axId val="-2072318968"/>
+        <c:axId val="-2093125592"/>
+        <c:axId val="-2062591768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072309544"/>
+        <c:axId val="-2093125592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072318968"/>
+        <c:crossAx val="-2062591768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1859,7 +1870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072318968"/>
+        <c:axId val="-2062591768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072309544"/>
+        <c:crossAx val="-2093125592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2069,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2079590344"/>
-        <c:axId val="-2064276152"/>
+        <c:axId val="-2059854488"/>
+        <c:axId val="-2086465448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079590344"/>
+        <c:axId val="-2059854488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064276152"/>
+        <c:crossAx val="-2086465448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2091,7 +2102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064276152"/>
+        <c:axId val="-2086465448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079590344"/>
+        <c:crossAx val="-2059854488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2301,11 +2312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2080104008"/>
-        <c:axId val="-2063963672"/>
+        <c:axId val="-2063233848"/>
+        <c:axId val="-2063063800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2080104008"/>
+        <c:axId val="-2063233848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063963672"/>
+        <c:crossAx val="-2063063800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2323,7 +2334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063963672"/>
+        <c:axId val="-2063063800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080104008"/>
+        <c:crossAx val="-2063233848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3769,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4127,6 +4138,46 @@
         <v>1784707</v>
       </c>
     </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41">
+        <f>C39/15</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D41">
+        <f>D39/15</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
